--- a/DataBI/Polysilicon_Data.xlsx
+++ b/DataBI/Polysilicon_Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\boutahirya\Desktop\Supply Chain Management\Anticipation-of-Raw-Material-Prices\DataBI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17053CD6-907C-4AF3-BF70-AC19663556CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6391C08-F051-4D24-B029-7F08DE08AD1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="16200"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly_Evolution_Polysilicon_Da" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="417">
   <si>
     <t>Date</t>
   </si>
@@ -1276,8 +1289,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1408,6 +1421,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2111,11 +2130,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="G243" sqref="G243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5322,55 +5341,88 @@
       <c r="A226" s="1">
         <v>45550</v>
       </c>
+      <c r="F226" t="s">
+        <v>411</v>
+      </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>45557</v>
       </c>
+      <c r="F227">
+        <v>5.85</v>
+      </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>45566</v>
       </c>
+      <c r="F228">
+        <v>5.82</v>
+      </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>45573</v>
       </c>
+      <c r="F229">
+        <v>5.79</v>
+      </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>45580</v>
       </c>
+      <c r="F230">
+        <v>5.79</v>
+      </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>45587</v>
       </c>
+      <c r="F231">
+        <v>5.79</v>
+      </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>45597</v>
       </c>
+      <c r="F232">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>45604</v>
       </c>
+      <c r="F233">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>45611</v>
       </c>
+      <c r="F234">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>45611</v>
       </c>
+      <c r="F235">
+        <v>5.78</v>
+      </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>45618</v>
+      </c>
+      <c r="F236">
+        <v>5.78</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -5382,6 +5434,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A237">
     <sortCondition ref="A192:A237"/>
   </sortState>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>